--- a/data-raw/byhand_ecotox-ref-values.xlsx
+++ b/data-raw/byhand_ecotox-ref-values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au757887\PC_documents\_git-it\PesticideLoadIndex4Dummies\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC18AAD0-2F41-46D8-BBCA-02C2BA30FF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9FBC64-FE97-4F45-BA19-DD6498E385C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EBC9440C-A15B-455F-9A6D-C37B13C4C3DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EBC9440C-A15B-455F-9A6D-C37B13C4C3DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,13 +529,14 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
